--- a/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:44:22+00:00</t>
+    <t>2025-12-05T08:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:48:00+00:00</t>
+    <t>2025-12-05T09:22:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:24:40+00:00</t>
+    <t>2025-12-29T09:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:23:18+00:00</t>
+    <t>2025-12-29T09:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:56:40+00:00</t>
+    <t>2025-12-29T10:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:13:00+00:00</t>
+    <t>2025-12-29T10:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:22:56+00:00</t>
+    <t>2025-12-29T10:23:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:23:39+00:00</t>
+    <t>2025-12-29T10:37:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:37:03+00:00</t>
+    <t>2025-12-29T10:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:57:12+00:00</t>
+    <t>2025-12-29T16:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:37:53+00:00</t>
+    <t>2025-12-29T16:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-identity-reliability.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:39:07+00:00</t>
+    <t>2025-12-29T16:43:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -399,7 +399,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-identity-method-collection</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-identity-method-collection|2.2.0-ballot</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -455,7 +455,7 @@
     <t>Extension.extension:identityStatus.value[x]</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-identity-reliability</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-identity-reliability|2.2.0-ballot</t>
   </si>
   <si>
     <t>Extension.extension:validationDate</t>
@@ -503,7 +503,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-mode-validation-identity</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-mode-validation-identity|2.2.0-ballot</t>
   </si>
   <si>
     <t>base64Binary
@@ -864,7 +864,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.6640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
